--- a/QuanLyKhoHangLaptop/bin/database/CuaHangNhapExcel.xlsx
+++ b/QuanLyKhoHangLaptop/bin/database/CuaHangNhapExcel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_setup\DoAnJava\QuanLyKhoHangLaptop\src\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\DoAnJava\QuanLyKhoHangLaptop\src\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB3B29D-D6E1-4480-B030-1CDD20BA39B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7200"/>
+    <workbookView xWindow="1740" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>MaCuaHang</t>
   </si>
@@ -45,16 +46,34 @@
   </si>
   <si>
     <t>0394852401</t>
+  </si>
+  <si>
+    <t>CH1</t>
+  </si>
+  <si>
+    <t>Viettel</t>
+  </si>
+  <si>
+    <t>55 Cách Mạng tháng 8, phường 1, quận 8, TP HCM</t>
+  </si>
+  <si>
+    <t>0394852402</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,6 +195,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -211,6 +247,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,21 +439,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.44140625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -428,31 +481,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
